--- a/data/nzd0076/nzd0076.xlsx
+++ b/data/nzd0076/nzd0076.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H302"/>
+  <dimension ref="A1:H308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9215,6 +9215,186 @@
         <v>369.8576923076923</v>
       </c>
       <c r="H302" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>406.4561538461539</v>
+      </c>
+      <c r="C303" t="n">
+        <v>398.75</v>
+      </c>
+      <c r="D303" t="n">
+        <v>381.18</v>
+      </c>
+      <c r="E303" t="n">
+        <v>382.7261538461539</v>
+      </c>
+      <c r="F303" t="n">
+        <v>378.8971428571429</v>
+      </c>
+      <c r="G303" t="n">
+        <v>384.9661538461539</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>413.0192307692308</v>
+      </c>
+      <c r="C304" t="n">
+        <v>402.44</v>
+      </c>
+      <c r="D304" t="n">
+        <v>386.67</v>
+      </c>
+      <c r="E304" t="n">
+        <v>380.5292307692308</v>
+      </c>
+      <c r="F304" t="n">
+        <v>383.9</v>
+      </c>
+      <c r="G304" t="n">
+        <v>404.2092307692308</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>416.5546153846154</v>
+      </c>
+      <c r="C305" t="n">
+        <v>397.2433333333333</v>
+      </c>
+      <c r="D305" t="n">
+        <v>386.3333333333333</v>
+      </c>
+      <c r="E305" t="n">
+        <v>395.6246153846154</v>
+      </c>
+      <c r="F305" t="n">
+        <v>394.7842857142857</v>
+      </c>
+      <c r="G305" t="n">
+        <v>416.7146153846153</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>411.2276923076923</v>
+      </c>
+      <c r="C306" t="n">
+        <v>404.1133333333333</v>
+      </c>
+      <c r="D306" t="n">
+        <v>387.8833333333333</v>
+      </c>
+      <c r="E306" t="n">
+        <v>385.1076923076923</v>
+      </c>
+      <c r="F306" t="n">
+        <v>382.93</v>
+      </c>
+      <c r="G306" t="n">
+        <v>400.8476923076923</v>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>417.8053846153846</v>
+      </c>
+      <c r="C307" t="n">
+        <v>401.6933333333333</v>
+      </c>
+      <c r="D307" t="n">
+        <v>385.7933333333334</v>
+      </c>
+      <c r="E307" t="n">
+        <v>382.8453846153847</v>
+      </c>
+      <c r="F307" t="n">
+        <v>384.7928571428571</v>
+      </c>
+      <c r="G307" t="n">
+        <v>401.7753846153847</v>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>412.9430769230769</v>
+      </c>
+      <c r="C308" t="n">
+        <v>403.17</v>
+      </c>
+      <c r="D308" t="n">
+        <v>386.37</v>
+      </c>
+      <c r="E308" t="n">
+        <v>385.7930769230769</v>
+      </c>
+      <c r="F308" t="n">
+        <v>384.8557142857143</v>
+      </c>
+      <c r="G308" t="n">
+        <v>402.8730769230769</v>
+      </c>
+      <c r="H308" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9231,7 +9411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B311"/>
+  <dimension ref="A1:B317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12349,6 +12529,66 @@
       </c>
       <c r="B311" t="n">
         <v>1.06</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>-0.33</v>
       </c>
     </row>
   </sheetData>
@@ -12517,28 +12757,28 @@
         <v>0.0703</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.07703299142580212</v>
+        <v>-0.07525616744620081</v>
       </c>
       <c r="J2" t="n">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K2" t="n">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00484414261885413</v>
+        <v>0.004826788218438294</v>
       </c>
       <c r="M2" t="n">
-        <v>6.027466370253</v>
+        <v>5.960197064183159</v>
       </c>
       <c r="N2" t="n">
-        <v>61.65813327086903</v>
+        <v>60.63589192690796</v>
       </c>
       <c r="O2" t="n">
-        <v>7.852269307077352</v>
+        <v>7.786905157179453</v>
       </c>
       <c r="P2" t="n">
-        <v>414.5528647433072</v>
+        <v>414.5351440999397</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -12594,28 +12834,28 @@
         <v>0.0859</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.02981017883768065</v>
+        <v>-0.03380414599950531</v>
       </c>
       <c r="J3" t="n">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K3" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008372619592367236</v>
+        <v>0.001125270171558612</v>
       </c>
       <c r="M3" t="n">
-        <v>5.505603545263067</v>
+        <v>5.431811387814999</v>
       </c>
       <c r="N3" t="n">
-        <v>52.96487968167152</v>
+        <v>52.00980148358248</v>
       </c>
       <c r="O3" t="n">
-        <v>7.277697416193636</v>
+        <v>7.211782129514346</v>
       </c>
       <c r="P3" t="n">
-        <v>402.9319707628469</v>
+        <v>402.9712168171071</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -12671,28 +12911,28 @@
         <v>0.0829</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02583689603683434</v>
+        <v>-0.03960061829003337</v>
       </c>
       <c r="J4" t="n">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K4" t="n">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005729084075185575</v>
+        <v>0.001405612442141546</v>
       </c>
       <c r="M4" t="n">
-        <v>5.614822206811813</v>
+        <v>5.55670845912528</v>
       </c>
       <c r="N4" t="n">
-        <v>57.59693733647563</v>
+        <v>56.67077044924309</v>
       </c>
       <c r="O4" t="n">
-        <v>7.589264611046029</v>
+        <v>7.52799909997624</v>
       </c>
       <c r="P4" t="n">
-        <v>389.4830098010139</v>
+        <v>389.6184249436241</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -12748,28 +12988,28 @@
         <v>0.0726</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06999036684463349</v>
+        <v>-0.07020295010741254</v>
       </c>
       <c r="J5" t="n">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K5" t="n">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004319590404479601</v>
+        <v>0.004534218496388909</v>
       </c>
       <c r="M5" t="n">
-        <v>5.984022251525347</v>
+        <v>5.932202420804413</v>
       </c>
       <c r="N5" t="n">
-        <v>54.99815557000407</v>
+        <v>54.33698268640389</v>
       </c>
       <c r="O5" t="n">
-        <v>7.416074134608153</v>
+        <v>7.37136233585108</v>
       </c>
       <c r="P5" t="n">
-        <v>387.2571783712183</v>
+        <v>387.2591987904333</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -12825,28 +13065,28 @@
         <v>0.0779</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04346585836977384</v>
+        <v>-0.04059767587206404</v>
       </c>
       <c r="J6" t="n">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K6" t="n">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001707626224579539</v>
+        <v>0.001553992368683144</v>
       </c>
       <c r="M6" t="n">
-        <v>5.732303442490913</v>
+        <v>5.67714224387588</v>
       </c>
       <c r="N6" t="n">
-        <v>54.50669749863106</v>
+        <v>53.85316278222253</v>
       </c>
       <c r="O6" t="n">
-        <v>7.382865128026589</v>
+        <v>7.338471420004478</v>
       </c>
       <c r="P6" t="n">
-        <v>385.4961776485407</v>
+        <v>385.4680988106068</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -12902,28 +13142,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04667228457290639</v>
+        <v>-0.03571026674822781</v>
       </c>
       <c r="J7" t="n">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K7" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001653534962555492</v>
+        <v>0.0009911998485216955</v>
       </c>
       <c r="M7" t="n">
-        <v>6.295525884350869</v>
+        <v>6.315489811843035</v>
       </c>
       <c r="N7" t="n">
-        <v>65.15049158450337</v>
+        <v>65.70948570034211</v>
       </c>
       <c r="O7" t="n">
-        <v>8.071585444291808</v>
+        <v>8.106138766412904</v>
       </c>
       <c r="P7" t="n">
-        <v>400.7640713771352</v>
+        <v>400.6573637636803</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -12960,7 +13200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H302"/>
+  <dimension ref="A1:H308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25076,6 +25316,258 @@
         </is>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>-35.4407031327717,174.39491032347718</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>-35.4412055203521,174.39550935481347</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>-35.44168725765563,174.3961646073911</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>-35.44202730754445,174.3969491456055</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>-35.44238174377834,174.39774161939</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>-35.44273426498503,174.39853054485633</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>-35.44065751020283,174.39495635753414</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>-35.4411780211825,174.39553222802303</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>-35.4416438852461,174.39619373864173</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>-35.44204493876577,174.3969381215154</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>-35.44234231552303,174.39776837735292</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>-35.44258804844487,174.3986446202834</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>-35.44063293432549,174.3949811550427</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>-35.44121674855748,174.3955000154317</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>-35.441646544999394,174.3961919522089</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>-35.44192379200747,174.39701386958</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>-35.442256534842,174.39782659226137</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>-35.44249302751192,174.3987187535883</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>-35.440669963903844,174.39494379151506</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>-35.44116555091634,174.39554260051227</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>-35.44163429960036,174.39620017687392</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>-35.442008194706816,174.3969610960844</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>-35.44234996023658,174.39776318927474</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>-35.442613590756345,174.3986246926818</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>-35.44062423972542,174.394989928048</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>-35.441183585603774,174.39552759966028</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>-35.4416508111383,174.39618908684116</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>-35.442026350667916,174.3969497439016</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>-35.44233527878355,174.39777315282905</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>-35.442606541780094,174.39863019215386</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>-35.44065803957873,174.39495582338398</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>-35.441172580966885,174.39553675307351</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>-35.44164625532329,174.39619214677091</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>-35.442002694209755,174.39696453532002</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>-35.44233478339708,174.39777348902254</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>-35.44259820107569,174.39863669940527</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0076/nzd0076.xlsx
+++ b/data/nzd0076/nzd0076.xlsx
@@ -12602,7 +12602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12693,35 +12693,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -12780,27 +12785,28 @@
       <c r="P2" t="n">
         <v>414.5351440999397</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.39205929993892 -35.44352853927529, 174.39854943724092 -35.437096338663494)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.3920592999389</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.44352853927529</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.3985494372409</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.43709633866349</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.3953043685899</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.44031243896939</v>
       </c>
     </row>
@@ -12857,27 +12863,28 @@
       <c r="P3" t="n">
         <v>402.9712168171071</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.3930375317711 -35.44417712054507, 174.39877235952727 -35.437282365447764)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.3930375317711</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.44417712054507</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.3987723595273</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.43728236544776</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.3959049456492</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.44072974299642</v>
       </c>
     </row>
@@ -12934,27 +12941,28 @@
       <c r="P4" t="n">
         <v>389.6184249436241</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.39414190022381 -35.444698661338116, 174.39905037110015 -35.437390499771126)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.3941419002238</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.44469866133812</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.3990503711001</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.43739049977113</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.396596135662</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.44104458055462</v>
       </c>
     </row>
@@ -13011,27 +13019,28 @@
       <c r="P5" t="n">
         <v>387.2591987904333</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.3950285668421 -35.44509882980658, 174.39967018710553 -35.43767518914958)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.3950285668421</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.44509882980658</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.3996701871055</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.43767518914958</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.3973493769738</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.44138700947808</v>
       </c>
     </row>
@@ -13088,27 +13097,28 @@
       <c r="P6" t="n">
         <v>385.4680988106068</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.39571499973195 -35.445367871840915, 174.40066261026487 -35.438077364287366)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.395714999732</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.44536787184092</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.4006626102649</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.43807736428737</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.3981888049984</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.44172261806414</v>
       </c>
     </row>
@@ -13165,27 +13175,28 @@
       <c r="P7" t="n">
         <v>400.6573637636803</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.39624833054185 -35.44565936930747, 174.4017325593874 -35.438629835673936)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.3962483305419</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.44565936930747</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.4017325593874</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.43862983567394</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.3989904449646</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.4421446024907</v>
       </c>
     </row>

--- a/data/nzd0076/nzd0076.xlsx
+++ b/data/nzd0076/nzd0076.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H308"/>
+  <dimension ref="A1:H309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9395,6 +9395,34 @@
         <v>402.8730769230769</v>
       </c>
       <c r="H308" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:08+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>378.8553846153847</v>
+      </c>
+      <c r="C309" t="n">
+        <v>374.1033333333334</v>
+      </c>
+      <c r="D309" t="n">
+        <v>364.0133333333334</v>
+      </c>
+      <c r="E309" t="n">
+        <v>365.3253846153846</v>
+      </c>
+      <c r="F309" t="n">
+        <v>364.3314285714285</v>
+      </c>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9411,7 +9439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B317"/>
+  <dimension ref="A1:B318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12589,6 +12617,16 @@
       </c>
       <c r="B317" t="n">
         <v>-0.33</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -12762,28 +12800,28 @@
         <v>0.0703</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.07525616744620081</v>
+        <v>-0.1000653374685376</v>
       </c>
       <c r="J2" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K2" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004826788218438294</v>
+        <v>0.008042930293507111</v>
       </c>
       <c r="M2" t="n">
-        <v>5.960197064183159</v>
+        <v>6.071357292985738</v>
       </c>
       <c r="N2" t="n">
-        <v>60.63589192690796</v>
+        <v>64.41475011106832</v>
       </c>
       <c r="O2" t="n">
-        <v>7.786905157179453</v>
+        <v>8.025880020973919</v>
       </c>
       <c r="P2" t="n">
-        <v>414.5351440999397</v>
+        <v>414.7819134934612</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12840,28 +12878,28 @@
         <v>0.0859</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.03380414599950531</v>
+        <v>-0.05404545424333455</v>
       </c>
       <c r="J3" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K3" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001125270171558612</v>
+        <v>0.002752850984856337</v>
       </c>
       <c r="M3" t="n">
-        <v>5.431811387814999</v>
+        <v>5.501561065298842</v>
       </c>
       <c r="N3" t="n">
-        <v>52.00980148358248</v>
+        <v>54.49546520150141</v>
       </c>
       <c r="O3" t="n">
-        <v>7.211782129514346</v>
+        <v>7.382104388418075</v>
       </c>
       <c r="P3" t="n">
-        <v>402.9712168171071</v>
+        <v>403.1735356026789</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12918,28 +12956,28 @@
         <v>0.0829</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03960061829003337</v>
+        <v>-0.05798338446933303</v>
       </c>
       <c r="J4" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K4" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001405612442141546</v>
+        <v>0.002925496520158943</v>
       </c>
       <c r="M4" t="n">
-        <v>5.55670845912528</v>
+        <v>5.616836187489826</v>
       </c>
       <c r="N4" t="n">
-        <v>56.67077044924309</v>
+        <v>58.56252646282968</v>
       </c>
       <c r="O4" t="n">
-        <v>7.52799909997624</v>
+        <v>7.652615661512715</v>
       </c>
       <c r="P4" t="n">
-        <v>389.6184249436241</v>
+        <v>389.8018625692109</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12996,28 +13034,28 @@
         <v>0.0726</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07020295010741254</v>
+        <v>-0.08574765497052417</v>
       </c>
       <c r="J5" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K5" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004534218496388909</v>
+        <v>0.006636496291283045</v>
       </c>
       <c r="M5" t="n">
-        <v>5.932202420804413</v>
+        <v>5.980248004374386</v>
       </c>
       <c r="N5" t="n">
-        <v>54.33698268640389</v>
+        <v>55.55205958655213</v>
       </c>
       <c r="O5" t="n">
-        <v>7.37136233585108</v>
+        <v>7.453325404579632</v>
       </c>
       <c r="P5" t="n">
-        <v>387.2591987904333</v>
+        <v>387.4135949371999</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13074,28 +13112,28 @@
         <v>0.0779</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04059767587206404</v>
+        <v>-0.05590334976171795</v>
       </c>
       <c r="J6" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K6" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001553992368683144</v>
+        <v>0.002892687628413326</v>
       </c>
       <c r="M6" t="n">
-        <v>5.67714224387588</v>
+        <v>5.729304750122203</v>
       </c>
       <c r="N6" t="n">
-        <v>53.85316278222253</v>
+        <v>55.06030570906174</v>
       </c>
       <c r="O6" t="n">
-        <v>7.338471420004478</v>
+        <v>7.420263183274684</v>
       </c>
       <c r="P6" t="n">
-        <v>385.4680988106068</v>
+        <v>385.6189948863711</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13155,7 +13193,7 @@
         <v>-0.03571026674822781</v>
       </c>
       <c r="J7" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K7" t="n">
         <v>273</v>
@@ -13211,7 +13249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H308"/>
+  <dimension ref="A1:H309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25579,6 +25617,44 @@
         </is>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:08+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>-35.44089499655902,174.39471672844388</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>-35.44138919582057,174.39535657708217</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>-35.44182287868702,174.39607351676156</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>-35.44216695592798,174.3968618289701</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>-35.442496538290044,174.39766371399259</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0076/nzd0076.xlsx
+++ b/data/nzd0076/nzd0076.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H309"/>
+  <dimension ref="A1:H313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9423,6 +9423,126 @@
       </c>
       <c r="G309" t="inlineStr"/>
       <c r="H309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>413.4223076923077</v>
+      </c>
+      <c r="C310" t="n">
+        <v>398.7933333333334</v>
+      </c>
+      <c r="D310" t="n">
+        <v>388.4233333333333</v>
+      </c>
+      <c r="E310" t="n">
+        <v>386.6123076923077</v>
+      </c>
+      <c r="F310" t="n">
+        <v>388.4528571428572</v>
+      </c>
+      <c r="G310" t="n">
+        <v>401.4423076923077</v>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>416.2069230769231</v>
+      </c>
+      <c r="C311" t="n">
+        <v>399.56</v>
+      </c>
+      <c r="D311" t="n">
+        <v>388.45</v>
+      </c>
+      <c r="E311" t="n">
+        <v>382.9069230769231</v>
+      </c>
+      <c r="F311" t="n">
+        <v>380.0842857142857</v>
+      </c>
+      <c r="G311" t="n">
+        <v>391.0369230769231</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>419.1692307692308</v>
+      </c>
+      <c r="C312" t="n">
+        <v>406.4033333333334</v>
+      </c>
+      <c r="D312" t="n">
+        <v>389.4533333333334</v>
+      </c>
+      <c r="E312" t="n">
+        <v>388.7992307692308</v>
+      </c>
+      <c r="F312" t="n">
+        <v>390.0457142857143</v>
+      </c>
+      <c r="G312" t="n">
+        <v>405.8392307692308</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>393.6976923076923</v>
+      </c>
+      <c r="C313" t="n">
+        <v>385.3166666666667</v>
+      </c>
+      <c r="D313" t="n">
+        <v>386.5266666666667</v>
+      </c>
+      <c r="E313" t="n">
+        <v>389.1076923076923</v>
+      </c>
+      <c r="F313" t="n">
+        <v>379.2185714285715</v>
+      </c>
+      <c r="G313" t="n">
+        <v>390.2276923076923</v>
+      </c>
+      <c r="H313" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9439,7 +9559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B318"/>
+  <dimension ref="A1:B322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12627,6 +12747,46 @@
       </c>
       <c r="B318" t="n">
         <v>0.04</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -12800,28 +12960,28 @@
         <v>0.0703</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1000653374685376</v>
+        <v>-0.1046032186352577</v>
       </c>
       <c r="J2" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K2" t="n">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008042930293507111</v>
+        <v>0.008860657051973697</v>
       </c>
       <c r="M2" t="n">
-        <v>6.071357292985738</v>
+        <v>6.097100066868093</v>
       </c>
       <c r="N2" t="n">
-        <v>64.41475011106832</v>
+        <v>64.94072146582135</v>
       </c>
       <c r="O2" t="n">
-        <v>8.025880020973919</v>
+        <v>8.05858061111393</v>
       </c>
       <c r="P2" t="n">
-        <v>414.7819134934612</v>
+        <v>414.8273615914805</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12878,28 +13038,28 @@
         <v>0.0859</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05404545424333455</v>
+        <v>-0.06593775169935319</v>
       </c>
       <c r="J3" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K3" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002752850984856337</v>
+        <v>0.00414044113877432</v>
       </c>
       <c r="M3" t="n">
-        <v>5.501561065298842</v>
+        <v>5.511559931356879</v>
       </c>
       <c r="N3" t="n">
-        <v>54.49546520150141</v>
+        <v>54.78475570784266</v>
       </c>
       <c r="O3" t="n">
-        <v>7.382104388418075</v>
+        <v>7.401672493959906</v>
       </c>
       <c r="P3" t="n">
-        <v>403.1735356026789</v>
+        <v>403.2928035616628</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12956,28 +13116,28 @@
         <v>0.0829</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05798338446933303</v>
+        <v>-0.05827952082789367</v>
       </c>
       <c r="J4" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K4" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002925496520158943</v>
+        <v>0.003050429658358444</v>
       </c>
       <c r="M4" t="n">
-        <v>5.616836187489826</v>
+        <v>5.550227256330091</v>
       </c>
       <c r="N4" t="n">
-        <v>58.56252646282968</v>
+        <v>57.77034101659996</v>
       </c>
       <c r="O4" t="n">
-        <v>7.652615661512715</v>
+        <v>7.600680299591607</v>
       </c>
       <c r="P4" t="n">
-        <v>389.8018625692109</v>
+        <v>389.8048408552439</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13034,28 +13194,28 @@
         <v>0.0726</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.08574765497052417</v>
+        <v>-0.08088141880292335</v>
       </c>
       <c r="J5" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K5" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006636496291283045</v>
+        <v>0.006096165494973715</v>
       </c>
       <c r="M5" t="n">
-        <v>5.980248004374386</v>
+        <v>5.936012907778517</v>
       </c>
       <c r="N5" t="n">
-        <v>55.55205958655213</v>
+        <v>54.90358722577935</v>
       </c>
       <c r="O5" t="n">
-        <v>7.453325404579632</v>
+        <v>7.409695488060177</v>
       </c>
       <c r="P5" t="n">
-        <v>387.4135949371999</v>
+        <v>387.3651068916113</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13112,28 +13272,28 @@
         <v>0.0779</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05590334976171795</v>
+        <v>-0.055143568504768</v>
       </c>
       <c r="J6" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K6" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002892687628413326</v>
+        <v>0.00289238568438932</v>
       </c>
       <c r="M6" t="n">
-        <v>5.729304750122203</v>
+        <v>5.716258058215665</v>
       </c>
       <c r="N6" t="n">
-        <v>55.06030570906174</v>
+        <v>54.62501830705411</v>
       </c>
       <c r="O6" t="n">
-        <v>7.420263183274684</v>
+        <v>7.390873988037822</v>
       </c>
       <c r="P6" t="n">
-        <v>385.6189948863711</v>
+        <v>385.6115479404206</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13190,28 +13350,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03571026674822781</v>
+        <v>-0.04372663734613236</v>
       </c>
       <c r="J7" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K7" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0009911998485216955</v>
+        <v>0.001521221297896114</v>
       </c>
       <c r="M7" t="n">
-        <v>6.315489811843035</v>
+        <v>6.317887303580331</v>
       </c>
       <c r="N7" t="n">
-        <v>65.70948570034211</v>
+        <v>65.50078816260941</v>
       </c>
       <c r="O7" t="n">
-        <v>8.106138766412904</v>
+        <v>8.093255720821467</v>
       </c>
       <c r="P7" t="n">
-        <v>400.6573637636803</v>
+        <v>400.7362677306779</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -13249,7 +13409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H309"/>
+  <dimension ref="A1:H313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25655,6 +25815,174 @@
         </is>
       </c>
     </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>-35.44065470825361,174.39495918475302</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>-35.44120519741698,174.39550962342398</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>-35.441630033461216,174.3962030422405</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>-35.44199611954139,174.39696864619032</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>-35.442306433779244,174.39779272845226</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>-35.44260907263146,174.39862821763373</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>-35.440635351274466,174.39497871629794</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>-35.441199483949354,174.39551437576324</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>-35.441629822787675,174.39620318374008</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>-35.44202585679616,174.39695005269954</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>-35.442372387730835,174.39774796886894</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>-35.44268813688062,174.39856653319862</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>-35.440614759081484,174.39499949418263</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-35.44114848503281,174.39555679552728</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>-35.44162189619564,174.39620850766113</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>-35.441978568571635,174.39697962008773</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>-35.442293880234274,174.39780124789365</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>-35.4425756630529,174.39865428311367</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>-35.44079182188554,174.39482083424485</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>-35.4413056302122,174.3954260854562</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>-35.44164501761631,174.39619297808125</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>-35.44197609303905,174.3969811679357</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>-35.44237921055252,174.39774333856312</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>-35.44269428573647,174.39856173597136</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0076/nzd0076.xlsx
+++ b/data/nzd0076/nzd0076.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21089,7 +21089,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-35.44067650891409,174.39493718747428</t>
+          <t>-35.440676508914095,174.39493718747428</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -22538,7 +22538,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-35.441229417549444,174.39548947763058</t>
+          <t>-35.44122941754944,174.39548947763058</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">

--- a/data/nzd0076/nzd0076.xlsx
+++ b/data/nzd0076/nzd0076.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H313"/>
+  <dimension ref="A1:H316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9543,6 +9543,94 @@
         <v>390.2276923076923</v>
       </c>
       <c r="H313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>409.8646153846154</v>
+      </c>
+      <c r="C314" t="n">
+        <v>402.7633333333333</v>
+      </c>
+      <c r="D314" t="n">
+        <v>389.1533333333333</v>
+      </c>
+      <c r="E314" t="n">
+        <v>381.1946153846154</v>
+      </c>
+      <c r="F314" t="n">
+        <v>383.7785714285715</v>
+      </c>
+      <c r="G314" t="n">
+        <v>400.4746153846153</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>416.7369230769231</v>
+      </c>
+      <c r="C315" t="n">
+        <v>402.3933333333333</v>
+      </c>
+      <c r="D315" t="n">
+        <v>392.6033333333334</v>
+      </c>
+      <c r="E315" t="n">
+        <v>392.1269230769231</v>
+      </c>
+      <c r="F315" t="n">
+        <v>380.7114285714285</v>
+      </c>
+      <c r="G315" t="n">
+        <v>401.6569230769231</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>411.5592307692308</v>
+      </c>
+      <c r="C316" t="n">
+        <v>401.9366666666667</v>
+      </c>
+      <c r="D316" t="n">
+        <v>385.8566666666667</v>
+      </c>
+      <c r="E316" t="n">
+        <v>374.8092307692308</v>
+      </c>
+      <c r="F316" t="n">
+        <v>375.4857142857143</v>
+      </c>
+      <c r="G316" t="inlineStr"/>
+      <c r="H316" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9559,7 +9647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B322"/>
+  <dimension ref="A1:B325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12787,6 +12875,36 @@
       </c>
       <c r="B322" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -12960,28 +13078,28 @@
         <v>0.0703</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1046032186352577</v>
+        <v>-0.1033832908870667</v>
       </c>
       <c r="J2" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K2" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008860657051973697</v>
+        <v>0.008841711716468192</v>
       </c>
       <c r="M2" t="n">
-        <v>6.097100066868093</v>
+        <v>6.058715582958159</v>
       </c>
       <c r="N2" t="n">
-        <v>64.94072146582135</v>
+        <v>64.35878351938211</v>
       </c>
       <c r="O2" t="n">
-        <v>8.05858061111393</v>
+        <v>8.022392630592329</v>
       </c>
       <c r="P2" t="n">
-        <v>414.8273615914805</v>
+        <v>414.8151226333857</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13038,28 +13156,28 @@
         <v>0.0859</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06593775169935319</v>
+        <v>-0.0643660399602934</v>
       </c>
       <c r="J3" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K3" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00414044113877432</v>
+        <v>0.004034867019883093</v>
       </c>
       <c r="M3" t="n">
-        <v>5.511559931356879</v>
+        <v>5.46403897341263</v>
       </c>
       <c r="N3" t="n">
-        <v>54.78475570784266</v>
+        <v>54.240155779041</v>
       </c>
       <c r="O3" t="n">
-        <v>7.401672493959906</v>
+        <v>7.364791631746345</v>
       </c>
       <c r="P3" t="n">
-        <v>403.2928035616628</v>
+        <v>403.2769745816311</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13116,28 +13234,28 @@
         <v>0.0829</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05827952082789367</v>
+        <v>-0.05639107546349834</v>
       </c>
       <c r="J4" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K4" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003050429658358444</v>
+        <v>0.002919414845011792</v>
       </c>
       <c r="M4" t="n">
-        <v>5.550227256330091</v>
+        <v>5.519532879339237</v>
       </c>
       <c r="N4" t="n">
-        <v>57.77034101659996</v>
+        <v>57.26450827789391</v>
       </c>
       <c r="O4" t="n">
-        <v>7.600680299591607</v>
+        <v>7.567331648467239</v>
       </c>
       <c r="P4" t="n">
-        <v>389.8048408552439</v>
+        <v>389.7858923614641</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13194,28 +13312,28 @@
         <v>0.0726</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.08088141880292335</v>
+        <v>-0.0864763579486658</v>
       </c>
       <c r="J5" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K5" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006096165494973715</v>
+        <v>0.007057480424104701</v>
       </c>
       <c r="M5" t="n">
-        <v>5.936012907778517</v>
+        <v>5.948235491482261</v>
       </c>
       <c r="N5" t="n">
-        <v>54.90358722577935</v>
+        <v>54.93024436912602</v>
       </c>
       <c r="O5" t="n">
-        <v>7.409695488060177</v>
+        <v>7.411494071314233</v>
       </c>
       <c r="P5" t="n">
-        <v>387.3651068916113</v>
+        <v>387.4212003850424</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13272,28 +13390,28 @@
         <v>0.0779</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.055143568504768</v>
+        <v>-0.06414949672711501</v>
       </c>
       <c r="J6" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K6" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00289238568438932</v>
+        <v>0.003984014061602426</v>
       </c>
       <c r="M6" t="n">
-        <v>5.716258058215665</v>
+        <v>5.701630517456334</v>
       </c>
       <c r="N6" t="n">
-        <v>54.62501830705411</v>
+        <v>54.36000342380206</v>
       </c>
       <c r="O6" t="n">
-        <v>7.390873988037822</v>
+        <v>7.37292366865425</v>
       </c>
       <c r="P6" t="n">
-        <v>385.6115479404206</v>
+        <v>385.7011117874943</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13350,28 +13468,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04372663734613236</v>
+        <v>-0.04152293626808704</v>
       </c>
       <c r="J7" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K7" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001521221297896114</v>
+        <v>0.001395237792591653</v>
       </c>
       <c r="M7" t="n">
-        <v>6.317887303580331</v>
+        <v>6.282840517405605</v>
       </c>
       <c r="N7" t="n">
-        <v>65.50078816260941</v>
+        <v>65.04857529629116</v>
       </c>
       <c r="O7" t="n">
-        <v>8.093255720821467</v>
+        <v>8.065269697678508</v>
       </c>
       <c r="P7" t="n">
-        <v>400.7362677306779</v>
+        <v>400.7144900782898</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -13409,7 +13527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H313"/>
+  <dimension ref="A1:H316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25983,6 +26101,128 @@
         </is>
       </c>
     </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-35.44067943919636,174.39493423076286</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-35.4411756115893,174.3955342322692</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>-35.441624266273024,174.39620691579117</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>-35.442039598777626,174.39694146039474</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>-35.44234327251957,174.3977677278881</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>-35.44261642554359,174.39862248103645</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>-35.44063166703142,174.394982433765</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>-35.44117836895883,174.3955319387504</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>-35.44159701038196,174.39622522229033</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>-35.44195186245121,174.39699631831314</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>-35.44236744512557,174.39775132316592</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>-35.44260744189813,174.39862948989963</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>-35.44066765924739,174.39494611695724</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>-35.44118177219865,174.39552910801072</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>-35.441650310788674,174.39618942290284</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>-35.44209084414009,174.39690941871532</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>-35.442408629747085,174.39772337322577</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr"/>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0076/nzd0076.xlsx
+++ b/data/nzd0076/nzd0076.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H316"/>
+  <dimension ref="A1:H319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9631,6 +9631,96 @@
       </c>
       <c r="G316" t="inlineStr"/>
       <c r="H316" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>409.9061538461538</v>
+      </c>
+      <c r="C317" t="n">
+        <v>400.1233333333333</v>
+      </c>
+      <c r="D317" t="n">
+        <v>384.0633333333333</v>
+      </c>
+      <c r="E317" t="n">
+        <v>377.7761538461539</v>
+      </c>
+      <c r="F317" t="n">
+        <v>374.31</v>
+      </c>
+      <c r="G317" t="n">
+        <v>388.9361538461538</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>406.6161538461538</v>
+      </c>
+      <c r="C318" t="n">
+        <v>396.64</v>
+      </c>
+      <c r="D318" t="n">
+        <v>379.36</v>
+      </c>
+      <c r="E318" t="n">
+        <v>373.1561538461538</v>
+      </c>
+      <c r="F318" t="n">
+        <v>370.5842857142857</v>
+      </c>
+      <c r="G318" t="n">
+        <v>385.8461538461539</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>402.3</v>
+      </c>
+      <c r="C319" t="n">
+        <v>391.5766666666667</v>
+      </c>
+      <c r="D319" t="n">
+        <v>372.6366666666667</v>
+      </c>
+      <c r="E319" t="n">
+        <v>358.89</v>
+      </c>
+      <c r="F319" t="n">
+        <v>362.7614285714286</v>
+      </c>
+      <c r="G319" t="n">
+        <v>368.79</v>
+      </c>
+      <c r="H319" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9647,7 +9737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B325"/>
+  <dimension ref="A1:B328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12905,6 +12995,36 @@
       </c>
       <c r="B325" t="n">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>
@@ -13078,28 +13198,28 @@
         <v>0.0703</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1033832908870667</v>
+        <v>-0.1152810222051445</v>
       </c>
       <c r="J2" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K2" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008841711716468192</v>
+        <v>0.01113728917237211</v>
       </c>
       <c r="M2" t="n">
-        <v>6.058715582958159</v>
+        <v>6.062980300412888</v>
       </c>
       <c r="N2" t="n">
-        <v>64.35878351938211</v>
+        <v>64.13940421652724</v>
       </c>
       <c r="O2" t="n">
-        <v>8.022392630592329</v>
+        <v>8.008708024177634</v>
       </c>
       <c r="P2" t="n">
-        <v>414.8151226333857</v>
+        <v>414.9350647523505</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13156,28 +13276,28 @@
         <v>0.0859</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0643660399602934</v>
+        <v>-0.07535643663106399</v>
       </c>
       <c r="J3" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K3" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004034867019883093</v>
+        <v>0.005600860303813682</v>
       </c>
       <c r="M3" t="n">
-        <v>5.46403897341263</v>
+        <v>5.462442430686728</v>
       </c>
       <c r="N3" t="n">
-        <v>54.240155779041</v>
+        <v>54.11405916099648</v>
       </c>
       <c r="O3" t="n">
-        <v>7.364791631746345</v>
+        <v>7.356225877513311</v>
       </c>
       <c r="P3" t="n">
-        <v>403.2769745816311</v>
+        <v>403.3882881092622</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13234,28 +13354,28 @@
         <v>0.0829</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05639107546349834</v>
+        <v>-0.07623654062895467</v>
       </c>
       <c r="J4" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K4" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002919414845011792</v>
+        <v>0.005338678272274078</v>
       </c>
       <c r="M4" t="n">
-        <v>5.519532879339237</v>
+        <v>5.556385028707106</v>
       </c>
       <c r="N4" t="n">
-        <v>57.26450827789391</v>
+        <v>57.8182669031353</v>
       </c>
       <c r="O4" t="n">
-        <v>7.567331648467239</v>
+        <v>7.603832382630176</v>
       </c>
       <c r="P4" t="n">
-        <v>389.7858923614641</v>
+        <v>389.9864797487717</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13312,28 +13432,28 @@
         <v>0.0726</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0864763579486658</v>
+        <v>-0.1187452470853375</v>
       </c>
       <c r="J5" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K5" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007057480424104701</v>
+        <v>0.0128530467014405</v>
       </c>
       <c r="M5" t="n">
-        <v>5.948235491482261</v>
+        <v>6.040283582095531</v>
       </c>
       <c r="N5" t="n">
-        <v>54.93024436912602</v>
+        <v>57.31241028117381</v>
       </c>
       <c r="O5" t="n">
-        <v>7.411494071314233</v>
+        <v>7.570496039307716</v>
       </c>
       <c r="P5" t="n">
-        <v>387.4212003850424</v>
+        <v>387.7456925223962</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13390,28 +13510,28 @@
         <v>0.0779</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06414949672711501</v>
+        <v>-0.09512590267111151</v>
       </c>
       <c r="J6" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K6" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003984014061602426</v>
+        <v>0.008548971483802625</v>
       </c>
       <c r="M6" t="n">
-        <v>5.701630517456334</v>
+        <v>5.80195123743735</v>
       </c>
       <c r="N6" t="n">
-        <v>54.36000342380206</v>
+        <v>56.19668964573638</v>
       </c>
       <c r="O6" t="n">
-        <v>7.37292366865425</v>
+        <v>7.496445133910898</v>
       </c>
       <c r="P6" t="n">
-        <v>385.7011117874943</v>
+        <v>386.0103098683555</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13468,28 +13588,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04152293626808704</v>
+        <v>-0.08240053760291045</v>
       </c>
       <c r="J7" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K7" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001395237792591653</v>
+        <v>0.005259411672009162</v>
       </c>
       <c r="M7" t="n">
-        <v>6.282840517405605</v>
+        <v>6.413008163032606</v>
       </c>
       <c r="N7" t="n">
-        <v>65.04857529629116</v>
+        <v>68.68460929190339</v>
       </c>
       <c r="O7" t="n">
-        <v>8.065269697678508</v>
+        <v>8.287617829744768</v>
       </c>
       <c r="P7" t="n">
-        <v>400.7144900782898</v>
+        <v>401.1205911066085</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -13527,7 +13647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H316"/>
+  <dimension ref="A1:H319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26223,6 +26343,132 @@
         </is>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>-35.44067915044592,174.39493452211767</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>-35.441195285792624,174.39551786769906</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>-35.44166447858284,174.39617990704994</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>-35.44206703335166,174.3969243066564</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>-35.44241789572315,174.39771708486742</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>-35.442704099356824,174.39855407955864</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>-35.44070202054799,174.39491144573327</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>-35.44122124480766,174.3954962755458</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>-35.44170163612144,174.39615495002988</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>-35.44210411076737,174.3969011236156</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>-35.44244725861974,174.3976971577152</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>-35.44272757839779,174.398535761618</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>-35.44073202384834,174.394881171785</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>-35.441258978527316,174.3954648894153</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>-35.44175475216924,174.39611927436388</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>-35.44221860254113,174.39682953629222</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>-35.44250891168546,174.39765531676187</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>-35.44285717774698,174.39843465022727</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0076/nzd0076.xlsx
+++ b/data/nzd0076/nzd0076.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H319"/>
+  <dimension ref="A1:H320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9721,6 +9721,36 @@
         <v>368.79</v>
       </c>
       <c r="H319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>419.0569230769231</v>
+      </c>
+      <c r="C320" t="n">
+        <v>400.0233333333334</v>
+      </c>
+      <c r="D320" t="n">
+        <v>387.3433333333334</v>
+      </c>
+      <c r="E320" t="n">
+        <v>381.6669230769231</v>
+      </c>
+      <c r="F320" t="n">
+        <v>383.8671428571428</v>
+      </c>
+      <c r="G320" t="n">
+        <v>400.3469230769231</v>
+      </c>
+      <c r="H320" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9737,7 +9767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B328"/>
+  <dimension ref="A1:B329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13025,6 +13055,16 @@
       </c>
       <c r="B328" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -13198,28 +13238,28 @@
         <v>0.0703</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1152810222051445</v>
+        <v>-0.1104774059651056</v>
       </c>
       <c r="J2" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K2" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01113728917237211</v>
+        <v>0.01028515721623402</v>
       </c>
       <c r="M2" t="n">
-        <v>6.062980300412888</v>
+        <v>6.063818913709307</v>
       </c>
       <c r="N2" t="n">
-        <v>64.13940421652724</v>
+        <v>64.09149678838766</v>
       </c>
       <c r="O2" t="n">
-        <v>8.008708024177634</v>
+        <v>8.005716506871053</v>
       </c>
       <c r="P2" t="n">
-        <v>414.9350647523505</v>
+        <v>414.8864142200044</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13276,28 +13316,28 @@
         <v>0.0859</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07535643663106399</v>
+        <v>-0.07629274208723109</v>
       </c>
       <c r="J3" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K3" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005600860303813682</v>
+        <v>0.005780949097649035</v>
       </c>
       <c r="M3" t="n">
-        <v>5.462442430686728</v>
+        <v>5.448874263130114</v>
       </c>
       <c r="N3" t="n">
-        <v>54.11405916099648</v>
+        <v>53.9413638154267</v>
       </c>
       <c r="O3" t="n">
-        <v>7.356225877513311</v>
+        <v>7.344478457686884</v>
       </c>
       <c r="P3" t="n">
-        <v>403.3882881092622</v>
+        <v>403.3978134461934</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13354,28 +13394,28 @@
         <v>0.0829</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.07623654062895467</v>
+        <v>-0.07669057473779614</v>
       </c>
       <c r="J4" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K4" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005338678272274078</v>
+        <v>0.005442567220411698</v>
       </c>
       <c r="M4" t="n">
-        <v>5.556385028707106</v>
+        <v>5.539823462407935</v>
       </c>
       <c r="N4" t="n">
-        <v>57.8182669031353</v>
+        <v>57.62505557694145</v>
       </c>
       <c r="O4" t="n">
-        <v>7.603832382630176</v>
+        <v>7.591116886001786</v>
       </c>
       <c r="P4" t="n">
-        <v>389.9864797487717</v>
+        <v>389.9910894822972</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13432,28 +13472,28 @@
         <v>0.0726</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1187452470853375</v>
+        <v>-0.1208534484398336</v>
       </c>
       <c r="J5" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K5" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0128530467014405</v>
+        <v>0.0134039991725704</v>
       </c>
       <c r="M5" t="n">
-        <v>6.040283582095531</v>
+        <v>6.029776987587487</v>
       </c>
       <c r="N5" t="n">
-        <v>57.31241028117381</v>
+        <v>57.14873575273658</v>
       </c>
       <c r="O5" t="n">
-        <v>7.570496039307716</v>
+        <v>7.559678283679577</v>
       </c>
       <c r="P5" t="n">
-        <v>387.7456925223962</v>
+        <v>387.7669838770937</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13510,28 +13550,28 @@
         <v>0.0779</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09512590267111151</v>
+        <v>-0.0948979094815831</v>
       </c>
       <c r="J6" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K6" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008548971483802625</v>
+        <v>0.008574215540190333</v>
       </c>
       <c r="M6" t="n">
-        <v>5.80195123743735</v>
+        <v>5.783419651976591</v>
       </c>
       <c r="N6" t="n">
-        <v>56.19668964573638</v>
+        <v>56.00783318654668</v>
       </c>
       <c r="O6" t="n">
-        <v>7.496445133910898</v>
+        <v>7.483838132038044</v>
       </c>
       <c r="P6" t="n">
-        <v>386.0103098683555</v>
+        <v>386.0080238008818</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13588,28 +13628,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.08240053760291045</v>
+        <v>-0.08139387578729157</v>
       </c>
       <c r="J7" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K7" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005259411672009162</v>
+        <v>0.00517447845469865</v>
       </c>
       <c r="M7" t="n">
-        <v>6.413008163032606</v>
+        <v>6.394932861768535</v>
       </c>
       <c r="N7" t="n">
-        <v>68.68460929190339</v>
+        <v>68.4484311899608</v>
       </c>
       <c r="O7" t="n">
-        <v>8.287617829744768</v>
+        <v>8.273356706317019</v>
       </c>
       <c r="P7" t="n">
-        <v>401.1205911066085</v>
+        <v>401.1105467003646</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -13647,7 +13687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H319"/>
+  <dimension ref="A1:H320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26469,6 +26509,48 @@
         </is>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>-35.44061553977752,174.39499870644687</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>-35.44119603102755,174.39551724782882</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>-35.44163856573943,174.39619731150702</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>-35.44203580831199,174.3969438304198</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>-35.44234257447503,174.39776820161538</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>-35.44261739580066,174.39862172406092</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0076/nzd0076.xlsx
+++ b/data/nzd0076/nzd0076.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H320"/>
+  <dimension ref="A1:H322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9751,6 +9751,66 @@
         <v>400.3469230769231</v>
       </c>
       <c r="H320" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:12:03+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>401.0592307692308</v>
+      </c>
+      <c r="C321" t="n">
+        <v>387.9133333333333</v>
+      </c>
+      <c r="D321" t="n">
+        <v>374.3833333333333</v>
+      </c>
+      <c r="E321" t="n">
+        <v>369.7392307692308</v>
+      </c>
+      <c r="F321" t="n">
+        <v>364.3</v>
+      </c>
+      <c r="G321" t="n">
+        <v>383.6792307692308</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>409.5146153846154</v>
+      </c>
+      <c r="C322" t="n">
+        <v>398.26</v>
+      </c>
+      <c r="D322" t="n">
+        <v>380.24</v>
+      </c>
+      <c r="E322" t="n">
+        <v>377.7546153846154</v>
+      </c>
+      <c r="F322" t="n">
+        <v>378.9428571428572</v>
+      </c>
+      <c r="G322" t="n">
+        <v>394.5346153846153</v>
+      </c>
+      <c r="H322" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9767,7 +9827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B329"/>
+  <dimension ref="A1:B331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13065,6 +13125,26 @@
       </c>
       <c r="B329" t="n">
         <v>-0.71</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -13687,7 +13767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H320"/>
+  <dimension ref="A1:H322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26551,6 +26631,90 @@
         </is>
       </c>
     </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:12:03+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>-35.44074064892693,174.3948724688975</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>-35.44128627895564,174.39544218145954</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-35.44174095305812,174.39612854261273</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>-35.44213153298922,174.39688397757035</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>-35.44249678598314,174.39766354589517</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>-35.44274404353399,174.39852291579678</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>-35.440681872186126,174.39493177582895</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-35.441209172003035,174.39550631744845</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-35.441694683896294,174.39615961952364</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>-35.44206720620675,174.39692419857698</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>-35.442381383497334,174.39774186389462</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>-35.44266156002721,174.39858726797397</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0076/nzd0076.xlsx
+++ b/data/nzd0076/nzd0076.xlsx
@@ -13318,28 +13318,28 @@
         <v>0.0703</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1104774059651056</v>
+        <v>-0.1193878848761487</v>
       </c>
       <c r="J2" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K2" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01028515721623402</v>
+        <v>0.01208386262058081</v>
       </c>
       <c r="M2" t="n">
-        <v>6.063818913709307</v>
+        <v>6.07244561002183</v>
       </c>
       <c r="N2" t="n">
-        <v>64.09149678838766</v>
+        <v>64.07848509365331</v>
       </c>
       <c r="O2" t="n">
-        <v>8.005716506871053</v>
+        <v>8.004903815390495</v>
       </c>
       <c r="P2" t="n">
-        <v>414.8864142200044</v>
+        <v>414.9767661672377</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13396,28 +13396,28 @@
         <v>0.0859</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07629274208723109</v>
+        <v>-0.0871685951243909</v>
       </c>
       <c r="J3" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K3" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005780949097649035</v>
+        <v>0.007553815987315415</v>
       </c>
       <c r="M3" t="n">
-        <v>5.448874263130114</v>
+        <v>5.466813458415697</v>
       </c>
       <c r="N3" t="n">
-        <v>53.9413638154267</v>
+        <v>54.20934983045233</v>
       </c>
       <c r="O3" t="n">
-        <v>7.344478457686884</v>
+        <v>7.362699900882307</v>
       </c>
       <c r="P3" t="n">
-        <v>403.3978134461934</v>
+        <v>403.5085862288122</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13474,28 +13474,28 @@
         <v>0.0829</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.07669057473779614</v>
+        <v>-0.09105709375926038</v>
       </c>
       <c r="J4" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K4" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005442567220411698</v>
+        <v>0.007662178907371198</v>
       </c>
       <c r="M4" t="n">
-        <v>5.539823462407935</v>
+        <v>5.571686951432131</v>
       </c>
       <c r="N4" t="n">
-        <v>57.62505557694145</v>
+        <v>58.04436651517481</v>
       </c>
       <c r="O4" t="n">
-        <v>7.591116886001786</v>
+        <v>7.618685353469771</v>
       </c>
       <c r="P4" t="n">
-        <v>389.9910894822972</v>
+        <v>390.1371426577919</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13552,28 +13552,28 @@
         <v>0.0726</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1208534484398336</v>
+        <v>-0.1358727472010542</v>
       </c>
       <c r="J5" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K5" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0134039991725704</v>
+        <v>0.01688304221737602</v>
       </c>
       <c r="M5" t="n">
-        <v>6.029776987587487</v>
+        <v>6.060686263373772</v>
       </c>
       <c r="N5" t="n">
-        <v>57.14873575273658</v>
+        <v>57.64960778031474</v>
       </c>
       <c r="O5" t="n">
-        <v>7.559678283679577</v>
+        <v>7.592733880514629</v>
       </c>
       <c r="P5" t="n">
-        <v>387.7669838770937</v>
+        <v>387.918854626041</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13630,28 +13630,28 @@
         <v>0.0779</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0948979094815831</v>
+        <v>-0.1111491994700574</v>
       </c>
       <c r="J6" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K6" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008574215540190333</v>
+        <v>0.01163752890225955</v>
       </c>
       <c r="M6" t="n">
-        <v>5.783419651976591</v>
+        <v>5.8298200048176</v>
       </c>
       <c r="N6" t="n">
-        <v>56.00783318654668</v>
+        <v>56.9213139167023</v>
       </c>
       <c r="O6" t="n">
-        <v>7.483838132038044</v>
+        <v>7.544621522429226</v>
       </c>
       <c r="P6" t="n">
-        <v>386.0080238008818</v>
+        <v>386.1711576463498</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13708,28 +13708,28 @@
         <v>0.07149999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.08139387578729157</v>
+        <v>-0.09565413808668066</v>
       </c>
       <c r="J7" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K7" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00517447845469865</v>
+        <v>0.00715740363419981</v>
       </c>
       <c r="M7" t="n">
-        <v>6.394932861768535</v>
+        <v>6.42169741647727</v>
       </c>
       <c r="N7" t="n">
-        <v>68.4484311899608</v>
+        <v>68.84498018732691</v>
       </c>
       <c r="O7" t="n">
-        <v>8.273356706317019</v>
+        <v>8.29728751986617</v>
       </c>
       <c r="P7" t="n">
-        <v>401.1105467003646</v>
+        <v>401.2529973649987</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">

--- a/data/nzd0076/nzd0076.xlsx
+++ b/data/nzd0076/nzd0076.xlsx
@@ -13312,10 +13312,10 @@
         <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0579</v>
+        <v>0.0571</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0703</v>
+        <v>0.0779</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1193355753377283</v>
@@ -13387,13 +13387,13 @@
         <v>0.1994850738555616</v>
       </c>
       <c r="F3" t="n">
-        <v>0.075</v>
+        <v>0.105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0694</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0859</v>
+        <v>0.1352</v>
       </c>
       <c r="I3" t="n">
         <v>-0.08717974109049638</v>
@@ -13465,13 +13465,13 @@
         <v>0.4001667738787903</v>
       </c>
       <c r="F4" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.075</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.0654</v>
-      </c>
       <c r="H4" t="n">
-        <v>0.0829</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="I4" t="n">
         <v>-0.09107464244636219</v>
@@ -13543,13 +13543,13 @@
         <v>0.6005438407252961</v>
       </c>
       <c r="F5" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0612</v>
+        <v>0.0655</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0726</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1358283880749942</v>
@@ -13621,13 +13621,13 @@
         <v>0.8014621893601359</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.064</v>
+        <v>0.0588</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0779</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>-0.1111659816351598</v>
@@ -13699,13 +13699,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0573</v>
+        <v>0.0675</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07149999999999999</v>
+        <v>0.0856</v>
       </c>
       <c r="I7" t="n">
         <v>-0.09561592496819629</v>

--- a/data/nzd0076/nzd0076.xlsx
+++ b/data/nzd0076/nzd0076.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H323"/>
+  <dimension ref="A1:H324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10135,6 +10135,36 @@
       <c r="H323" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>408.56</v>
+      </c>
+      <c r="C324" t="n">
+        <v>397.68</v>
+      </c>
+      <c r="D324" t="n">
+        <v>383.37</v>
+      </c>
+      <c r="E324" t="n">
+        <v>378.45</v>
+      </c>
+      <c r="F324" t="n">
+        <v>376.56</v>
+      </c>
+      <c r="G324" t="n">
+        <v>392.28</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10149,7 +10179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B332"/>
+  <dimension ref="A1:B333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13477,6 +13507,16 @@
       </c>
       <c r="B332" t="n">
         <v>0.16</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -13647,31 +13687,31 @@
         <v>0.057</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07779999999999999</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.09793018674203137</v>
+        <v>-0.09989155113708377</v>
       </c>
       <c r="J2" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K2" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03838179091413196</v>
+        <v>0.04004765186392512</v>
       </c>
       <c r="M2" t="n">
-        <v>2.786196417539132</v>
+        <v>2.787253957901399</v>
       </c>
       <c r="N2" t="n">
-        <v>12.8844302542538</v>
+        <v>12.87449306563543</v>
       </c>
       <c r="O2" t="n">
-        <v>3.589488856961922</v>
+        <v>3.58810438332491</v>
       </c>
       <c r="P2" t="n">
-        <v>414.2479940788844</v>
+        <v>414.2681707147291</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -13726,34 +13766,34 @@
         <v>0.105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08740000000000001</v>
+        <v>0.0872</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1352</v>
+        <v>0.1349</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07553660575694326</v>
+        <v>-0.07731075118188685</v>
       </c>
       <c r="J3" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K3" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02227906824475268</v>
+        <v>0.02342871937177127</v>
       </c>
       <c r="M3" t="n">
-        <v>2.760681230631294</v>
+        <v>2.761096354885953</v>
       </c>
       <c r="N3" t="n">
-        <v>13.42726101466712</v>
+        <v>13.41019797111984</v>
       </c>
       <c r="O3" t="n">
-        <v>3.66432272250509</v>
+        <v>3.661993715330467</v>
       </c>
       <c r="P3" t="n">
-        <v>402.484461611417</v>
+        <v>402.5027123180501</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -13808,34 +13848,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07489999999999999</v>
+        <v>0.075</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09660000000000001</v>
+        <v>0.0965</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06326421375760541</v>
+        <v>-0.06573880137465646</v>
       </c>
       <c r="J4" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K4" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01400945146718036</v>
+        <v>0.0151655465299062</v>
       </c>
       <c r="M4" t="n">
-        <v>2.840466417824115</v>
+        <v>2.844270671672561</v>
       </c>
       <c r="N4" t="n">
-        <v>15.10506023118099</v>
+        <v>15.10597409353079</v>
       </c>
       <c r="O4" t="n">
-        <v>3.886522897292771</v>
+        <v>3.886640463630613</v>
       </c>
       <c r="P4" t="n">
-        <v>388.9639850947449</v>
+        <v>388.9894412788894</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -13890,34 +13930,34 @@
         <v>0.075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0654</v>
+        <v>0.0655</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.08409999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1059683222426224</v>
+        <v>-0.1095561271081724</v>
       </c>
       <c r="J5" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K5" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04879529228432133</v>
+        <v>0.05190001771233654</v>
       </c>
       <c r="M5" t="n">
-        <v>2.682284880259556</v>
+        <v>2.692428771972223</v>
       </c>
       <c r="N5" t="n">
-        <v>11.73823485245508</v>
+        <v>11.80211875204148</v>
       </c>
       <c r="O5" t="n">
-        <v>3.426110747254835</v>
+        <v>3.435421189904009</v>
       </c>
       <c r="P5" t="n">
-        <v>386.936384144775</v>
+        <v>386.9732920403382</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -13972,34 +14012,34 @@
         <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0588</v>
+        <v>0.0589</v>
       </c>
       <c r="H6" t="n">
         <v>0.07099999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06563688436410423</v>
+        <v>-0.07016648833435808</v>
       </c>
       <c r="J6" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K6" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02201682734878607</v>
+        <v>0.02487202874992489</v>
       </c>
       <c r="M6" t="n">
-        <v>2.458274216133036</v>
+        <v>2.472492098005428</v>
       </c>
       <c r="N6" t="n">
-        <v>10.26188566818551</v>
+        <v>10.38986469454156</v>
       </c>
       <c r="O6" t="n">
-        <v>3.203417810430839</v>
+        <v>3.223331303875164</v>
       </c>
       <c r="P6" t="n">
-        <v>385.4893179533774</v>
+        <v>385.5359141748949</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -14054,34 +14094,34 @@
         <v>0.075</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0675</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08550000000000001</v>
+        <v>0.0856</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1050419648009271</v>
+        <v>-0.1088292256742549</v>
       </c>
       <c r="J7" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K7" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04260496378668055</v>
+        <v>0.04552471838402339</v>
       </c>
       <c r="M7" t="n">
-        <v>2.908579511301257</v>
+        <v>2.91873384382109</v>
       </c>
       <c r="N7" t="n">
-        <v>13.29570144851799</v>
+        <v>13.3662168126773</v>
       </c>
       <c r="O7" t="n">
-        <v>3.64632711759628</v>
+        <v>3.655983699728063</v>
       </c>
       <c r="P7" t="n">
-        <v>401.0562925091768</v>
+        <v>401.0952522168591</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -14123,7 +14163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H323"/>
+  <dimension ref="A1:H324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27697,6 +27737,48 @@
         </is>
       </c>
     </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>-35.44068850809867,174.39492508006342</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-35.44121349436528,174.3955027221997</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-35.441669956094145,174.3961762280576</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>-35.442061625456496,174.39692768799725</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>-35.44240016314414,174.3977291190878</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>-35.442678691489505,174.398573902322</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
